--- a/scripts/all_cam.xlsx
+++ b/scripts/all_cam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t xml:space="preserve">t_indexing (s)</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Maj</t>
   </si>
   <si>
+    <t xml:space="preserve">Cam / CRC</t>
+  </si>
+  <si>
     <t xml:space="preserve">resnet</t>
   </si>
   <si>
@@ -74,6 +77,24 @@
   </si>
   <si>
     <t xml:space="preserve">Byol 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byol 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctranspath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phikon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cdpath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uni</t>
   </si>
 </sst>
 </file>
@@ -163,13 +184,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -189,15 +214,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -222,8 +247,35 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>156.35</v>
       </c>
@@ -249,7 +301,31 @@
         <v>78.54</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>76.95</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>49.72</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>83.58</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>93.54</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>84.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -278,7 +354,31 @@
         <v>70.97</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>243.88</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>68.83</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>80.67</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>91.64</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>81.73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,7 +407,31 @@
         <v>72.06</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>87.61</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>128.47</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>106.57</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>93.59</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>97.79</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>93.83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,7 +460,31 @@
         <v>79.81</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>87.48</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>128.46</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>106.66</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>95.4</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>96.04</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,7 +513,31 @@
         <v>79.1</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>87.49</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>128.29</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>98.01</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>94.89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,7 +566,31 @@
         <v>69.5</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>77.32</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>70.53</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>70.93</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>90.29</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>70.43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -423,7 +619,31 @@
         <v>89.98</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>87.59</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>127.74</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>106.21</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>93.16</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>97.91</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>94.67</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,7 +672,31 @@
         <v>80.67</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>87.88</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>128.66</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>92.55</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>97.38</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>93.69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,7 +725,34 @@
         <v>71.6</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>87.27</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>134.26</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>111.35</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>92.35</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>92.98</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>92.35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,7 +781,187 @@
         <v>80.67</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>77.54</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>87.62</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>71.57</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>83.91</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>84.69</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>83.91</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>77.16</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>93.62</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>75.82</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>78.11</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>93.18</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>78.11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>78.06</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>580.73</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>565.84</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>91.41</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>97.38</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>128.96</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>236.77</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>211.67</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>96.07</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>96.31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>243.91</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>211.45</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>95.04</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>97.6</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>95.74</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>141.23</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>52.86</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>77.77</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>48.83</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/all_cam.xlsx
+++ b/scripts/all_cam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t xml:space="preserve">t_indexing (s)</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Maj</t>
   </si>
   <si>
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cam / CRC</t>
   </si>
   <si>
@@ -95,6 +98,15 @@
   </si>
   <si>
     <t xml:space="preserve">Uni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cam: pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crc: serv</t>
   </si>
 </sst>
 </file>
@@ -214,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -247,32 +259,38 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -300,32 +318,38 @@
       <c r="H2" s="0" t="n">
         <v>78.54</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="I2" s="0" t="n">
+        <v>76.78</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <v>76.95</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>49.72</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>12.91</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>1.03</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>34.5</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>83.58</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>93.54</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>84.99</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>83.56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,32 +377,38 @@
       <c r="H3" s="0" t="n">
         <v>70.97</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="I3" s="0" t="n">
+        <v>68.61</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <v>243.88</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>68.83</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>13.27</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>19.28</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>34.99</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>80.67</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>91.64</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>81.73</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>80.67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,32 +436,38 @@
       <c r="H4" s="0" t="n">
         <v>72.06</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="I4" s="0" t="n">
+        <v>70.32</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <v>87.61</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>128.47</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>13.91</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>6.64</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>106.57</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>93.59</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>97.79</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>93.83</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>93.59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -459,32 +495,38 @@
       <c r="H5" s="0" t="n">
         <v>79.81</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="I5" s="0" t="n">
+        <v>78.02</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>87.48</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>128.46</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>14.03</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>6.43</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>106.66</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>95.4</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>98.34</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>96.04</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>95.4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,32 +554,38 @@
       <c r="H6" s="0" t="n">
         <v>79.1</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="I6" s="0" t="n">
+        <v>76.91</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>87.49</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>128.29</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>13.81</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>6.76</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>106.4</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>94.39</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>98.01</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>94.89</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>94.39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,32 +613,35 @@
       <c r="H7" s="0" t="n">
         <v>69.5</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="J7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <v>77.32</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>86.2</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>13.31</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>1.05</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>70.53</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>70.93</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>90.29</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>70.43</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>70.93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,32 +669,35 @@
       <c r="H8" s="0" t="n">
         <v>89.98</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="J8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>87.59</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>127.74</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>13.41</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>6.82</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>106.21</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>93.16</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>97.91</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>94.67</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>93.16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,32 +725,35 @@
       <c r="H9" s="0" t="n">
         <v>80.67</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="J9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <v>87.88</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="M9" s="2" t="n">
         <v>128.66</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="N9" s="2" t="n">
         <v>13.83</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>6.52</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>106.99</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>92.55</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>97.38</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>93.69</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>92.55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,34 +781,34 @@
       <c r="H10" s="0" t="n">
         <v>71.6</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="0" t="n">
+      <c r="J10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="0" t="n">
         <v>87.27</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>134.26</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>15.52</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>5.97</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>111.35</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>92.35</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>97.77</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>92.98</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>92.35</v>
       </c>
     </row>
@@ -780,188 +837,248 @@
       <c r="H11" s="0" t="n">
         <v>80.67</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="0" t="n">
+      <c r="I11" s="0" t="n">
+        <v>80.41</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="0" t="n">
         <v>77.54</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>87.62</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>13.88</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>0.83</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>71.57</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>83.91</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>93.75</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>84.69</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>83.91</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="I12" s="0" t="n">
+        <v>64.61</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <v>77.16</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>93.62</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>15.54</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>75.82</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>78.11</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>93.18</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>78.11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="J13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="0" t="n">
         <v>78.06</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>580.73</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>12.47</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>565.84</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>91.41</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>97.38</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>92.3</v>
       </c>
+      <c r="T13" s="0" t="n">
+        <v>91.41</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="0" t="n">
+      <c r="J14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="0" t="n">
         <v>128.96</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>236.77</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>21.24</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>2.46</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>211.67</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>96.07</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>98.44</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>96.31</v>
       </c>
+      <c r="T14" s="0" t="n">
+        <v>96.07</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="0" t="n">
+      <c r="J15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="0" t="n">
         <v>243.91</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>249.5</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>13.28</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>23.41</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>211.45</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>95.04</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>97.6</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>95.74</v>
       </c>
+      <c r="T15" s="0" t="n">
+        <v>95.04</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="0" t="n">
+      <c r="J16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="0" t="n">
         <v>21.83</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>150.1</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>6.69</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>0.78</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>141.23</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>52.86</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>77.77</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>48.83</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I17" s="0" t="s">
-        <v>24</v>
+      <c r="T16" s="0" t="n">
+        <v>52.86</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>778.08</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>379.42</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>286.69</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>95.99</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>97.26</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>96.46</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>95.99</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K21" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K22" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K23" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/all_cam.xlsx
+++ b/scripts/all_cam.xlsx
@@ -228,8 +228,8 @@
   </sheetPr>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -613,6 +613,9 @@
       <c r="H7" s="0" t="n">
         <v>69.5</v>
       </c>
+      <c r="I7" s="0" t="n">
+        <v>66.36</v>
+      </c>
       <c r="J7" s="0" t="s">
         <v>15</v>
       </c>
@@ -669,6 +672,9 @@
       <c r="H8" s="0" t="n">
         <v>89.98</v>
       </c>
+      <c r="I8" s="0" t="n">
+        <v>88.06</v>
+      </c>
       <c r="J8" s="0" t="s">
         <v>16</v>
       </c>
@@ -725,6 +731,9 @@
       <c r="H9" s="0" t="n">
         <v>80.67</v>
       </c>
+      <c r="I9" s="0" t="n">
+        <v>77.46</v>
+      </c>
       <c r="J9" s="0" t="s">
         <v>17</v>
       </c>
@@ -781,6 +790,9 @@
       <c r="H10" s="0" t="n">
         <v>71.6</v>
       </c>
+      <c r="I10" s="0" t="n">
+        <v>70.29</v>
+      </c>
       <c r="J10" s="0" t="s">
         <v>18</v>
       </c>
@@ -872,6 +884,30 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>160.62</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>836.79</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>156.66</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>666.08</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>64.61</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>79.37</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>60.76</v>
+      </c>
       <c r="I12" s="0" t="n">
         <v>64.61</v>
       </c>
@@ -907,6 +943,33 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5896.83</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>160.72</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>5716.15</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>79.04</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>89.59</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>79.04</v>
+      </c>
       <c r="J13" s="0" t="s">
         <v>21</v>
       </c>
@@ -939,6 +1002,33 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>205.3</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2408.94</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>273.11</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2122.26</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>92.01</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>80.16</v>
+      </c>
       <c r="J14" s="0" t="s">
         <v>22</v>
       </c>
@@ -1003,6 +1093,33 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1489.89</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1397.34</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>91.6</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>75.96</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>73</v>
+      </c>
       <c r="J16" s="0" t="s">
         <v>24</v>
       </c>

--- a/scripts/all_cam.xlsx
+++ b/scripts/all_cam.xlsx
@@ -205,7 +205,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,8 +228,8 @@
   </sheetPr>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -262,482 +262,482 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>156.35</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>496.79</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="2" t="n">
         <v>168.93</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="2" t="n">
         <v>2.22</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="2" t="n">
         <v>313.32</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="2" t="n">
         <v>76.78</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="2" t="n">
         <v>89.43</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="2" t="n">
         <v>78.54</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="2" t="n">
         <v>76.78</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="2" t="n">
         <v>76.95</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="2" t="n">
         <v>49.72</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="2" t="n">
         <v>12.91</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="2" t="n">
         <v>1.03</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="2" t="n">
         <v>34.5</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2" s="2" t="n">
         <v>83.58</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" s="2" t="n">
         <v>93.54</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2" s="2" t="n">
         <v>84.99</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2" s="2" t="n">
         <v>83.56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>359.75</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>538.3</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="2" t="n">
         <v>169.46</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="2" t="n">
         <v>54.01</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="2" t="n">
         <v>302.77</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="2" t="n">
         <v>68.61</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="2" t="n">
         <v>86.6</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="2" t="n">
         <v>70.97</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="2" t="n">
         <v>68.61</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="2" t="n">
         <v>243.88</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="2" t="n">
         <v>68.83</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="2" t="n">
         <v>13.27</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="2" t="n">
         <v>19.28</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="2" t="n">
         <v>34.99</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3" s="2" t="n">
         <v>80.67</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3" s="2" t="n">
         <v>91.64</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="S3" s="2" t="n">
         <v>81.73</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="T3" s="2" t="n">
         <v>80.67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>138.28</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>839.52</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>120.14</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>4.52</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>703.49</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="2" t="n">
         <v>70.32</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="2" t="n">
         <v>85.44</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="2" t="n">
         <v>72.06</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="2" t="n">
         <v>70.32</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="2" t="n">
         <v>87.61</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="2" t="n">
         <v>128.47</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="2" t="n">
         <v>13.91</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="2" t="n">
         <v>6.64</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="2" t="n">
         <v>106.57</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4" s="2" t="n">
         <v>93.59</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4" s="2" t="n">
         <v>97.79</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4" s="2" t="n">
         <v>93.83</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="T4" s="2" t="n">
         <v>93.59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>137.79</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>754.75</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="2" t="n">
         <v>96.95</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>7.87</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="2" t="n">
         <v>640.56</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="2" t="n">
         <v>78.02</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="2" t="n">
         <v>89.25</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="2" t="n">
         <v>79.81</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="2" t="n">
         <v>78.02</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="2" t="n">
         <v>87.48</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="2" t="n">
         <v>128.46</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="2" t="n">
         <v>14.03</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="2" t="n">
         <v>6.43</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="2" t="n">
         <v>106.66</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5" s="2" t="n">
         <v>95.4</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" s="2" t="n">
         <v>98.34</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5" s="2" t="n">
         <v>96.04</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="T5" s="2" t="n">
         <v>95.4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>137.36</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>814.9</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="2" t="n">
         <v>112.48</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="2" t="n">
         <v>5.96</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="2" t="n">
         <v>685.69</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="2" t="n">
         <v>76.91</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="2" t="n">
         <v>88.54</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="2" t="n">
         <v>79.1</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="2" t="n">
         <v>76.91</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="2" t="n">
         <v>87.49</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="2" t="n">
         <v>128.29</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="2" t="n">
         <v>13.81</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="2" t="n">
         <v>6.76</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="2" t="n">
         <v>106.4</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6" s="2" t="n">
         <v>94.39</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6" s="2" t="n">
         <v>98.01</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6" s="2" t="n">
         <v>94.89</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6" s="2" t="n">
         <v>94.39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
         <v>156.73</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>565.67</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="2" t="n">
         <v>102.4</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="2" t="n">
         <v>7.41</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="2" t="n">
         <v>445.02</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="2" t="n">
         <v>66.36</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="2" t="n">
         <v>88.65</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="2" t="n">
         <v>69.5</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="2" t="n">
         <v>66.36</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="2" t="n">
         <v>77.32</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="2" t="n">
         <v>86.2</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="2" t="n">
         <v>13.31</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="2" t="n">
         <v>1.05</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="2" t="n">
         <v>70.53</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7" s="2" t="n">
         <v>70.93</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7" s="2" t="n">
         <v>90.29</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7" s="2" t="n">
         <v>70.43</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7" s="2" t="n">
         <v>70.93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
         <v>140.91</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>1249.38</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="2" t="n">
         <v>169.01</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="2" t="n">
         <v>1.77</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="2" t="n">
         <v>1066.85</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="2" t="n">
         <v>88.06</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="2" t="n">
         <v>94.91</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="2" t="n">
         <v>89.98</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="2" t="n">
         <v>88.06</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="2" t="n">
         <v>87.59</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="2" t="n">
         <v>127.74</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="2" t="n">
         <v>13.41</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="2" t="n">
         <v>6.82</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="2" t="n">
         <v>106.21</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8" s="2" t="n">
         <v>93.16</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8" s="2" t="n">
         <v>97.91</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8" s="2" t="n">
         <v>94.67</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8" s="2" t="n">
         <v>93.16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>141.36</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>1263.27</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="2" t="n">
         <v>172.96</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="2" t="n">
         <v>1.76</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="2" t="n">
         <v>1076.58</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="2" t="n">
         <v>77.46</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="2" t="n">
         <v>92.42</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="2" t="n">
         <v>80.67</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="2" t="n">
         <v>77.46</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="2" t="n">
         <v>87.88</v>
       </c>
       <c r="M9" s="2" t="n">
@@ -746,455 +746,509 @@
       <c r="N9" s="2" t="n">
         <v>13.83</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="2" t="n">
         <v>6.52</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="2" t="n">
         <v>106.99</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" s="2" t="n">
         <v>92.55</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9" s="2" t="n">
         <v>97.38</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9" s="2" t="n">
         <v>93.69</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="T9" s="2" t="n">
         <v>92.55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>141.48</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>1277.67</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="2" t="n">
         <v>178.61</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="2" t="n">
         <v>1.73</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="2" t="n">
         <v>1085.14</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="2" t="n">
         <v>70.29</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="2" t="n">
         <v>87.16</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="2" t="n">
         <v>71.6</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="2" t="n">
         <v>70.29</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="2" t="n">
         <v>87.27</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="2" t="n">
         <v>134.26</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="2" t="n">
         <v>15.52</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="2" t="n">
         <v>5.97</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="2" t="n">
         <v>111.35</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10" s="2" t="n">
         <v>92.35</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="2" t="n">
         <v>97.77</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10" s="2" t="n">
         <v>92.98</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10" s="2" t="n">
         <v>92.35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>160.73</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>869.99</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="2" t="n">
         <v>166.6</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="2" t="n">
         <v>2.57</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="2" t="n">
         <v>688.79</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="2" t="n">
         <v>80.41</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="2" t="n">
         <v>88.92</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="2" t="n">
         <v>80.67</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="2" t="n">
         <v>80.41</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="2" t="n">
         <v>77.54</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="2" t="n">
         <v>87.62</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="2" t="n">
         <v>13.88</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="2" t="n">
         <v>0.83</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="2" t="n">
         <v>71.57</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11" s="2" t="n">
         <v>83.91</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11" s="2" t="n">
         <v>93.75</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="S11" s="2" t="n">
         <v>84.69</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="T11" s="2" t="n">
         <v>83.91</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>160.62</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>836.79</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="2" t="n">
         <v>156.66</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="2" t="n">
         <v>2.61</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="2" t="n">
         <v>666.08</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="2" t="n">
         <v>64.61</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="2" t="n">
         <v>79.37</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="2" t="n">
         <v>60.76</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="2" t="n">
         <v>64.61</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="2" t="n">
         <v>77.16</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="2" t="n">
         <v>93.62</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" s="2" t="n">
         <v>15.54</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12" s="2" t="n">
         <v>75.82</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12" s="2" t="n">
         <v>78.11</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12" s="2" t="n">
         <v>93.18</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="S12" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="T12" s="2" t="n">
         <v>78.11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>5896.83</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="2" t="n">
         <v>160.72</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="2" t="n">
         <v>2.01</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="2" t="n">
         <v>5716.15</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="2" t="n">
         <v>79.04</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="2" t="n">
         <v>89.59</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="2" t="n">
         <v>79.8</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="2" t="n">
         <v>79.04</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="2" t="n">
         <v>78.06</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="2" t="n">
         <v>580.73</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="2" t="n">
         <v>12.47</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="2" t="n">
         <v>565.84</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13" s="2" t="n">
         <v>91.41</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13" s="2" t="n">
         <v>97.38</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="S13" s="2" t="n">
         <v>92.3</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="T13" s="2" t="n">
         <v>91.41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>205.3</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>2408.94</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="2" t="n">
         <v>273.11</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="2" t="n">
         <v>1.36</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="2" t="n">
         <v>2122.26</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="2" t="n">
         <v>80.16</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="2" t="n">
         <v>92.01</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="2" t="n">
         <v>82.5</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="2" t="n">
         <v>80.16</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="2" t="n">
         <v>128.96</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="2" t="n">
         <v>236.77</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14" s="2" t="n">
         <v>21.24</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="2" t="n">
         <v>2.46</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14" s="2" t="n">
         <v>211.67</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14" s="2" t="n">
         <v>96.07</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="2" t="n">
         <v>98.44</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14" s="2" t="n">
         <v>96.31</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="T14" s="2" t="n">
         <v>96.07</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J15" s="0" t="s">
+      <c r="A15" s="0" t="n">
+        <v>360.53</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2381.62</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>164.98</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>66.26</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2130.06</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>80.91</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>91.87</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>83.82</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>80.91</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="2" t="n">
         <v>243.91</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="2" t="n">
         <v>249.5</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="2" t="n">
         <v>13.28</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15" s="2" t="n">
         <v>23.41</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15" s="2" t="n">
         <v>211.45</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15" s="2" t="n">
         <v>95.04</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15" s="2" t="n">
         <v>97.6</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15" s="2" t="n">
         <v>95.74</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="T15" s="2" t="n">
         <v>95.04</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>32.01</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>1489.89</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="2" t="n">
         <v>79.09</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="2" t="n">
         <v>1.59</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="2" t="n">
         <v>1397.34</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="2" t="n">
         <v>91.6</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="2" t="n">
         <v>75.96</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="2" t="n">
         <v>21.83</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="2" t="n">
         <v>150.1</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16" s="2" t="n">
         <v>6.69</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="O16" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16" s="2" t="n">
         <v>141.23</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="Q16" s="2" t="n">
         <v>52.86</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="R16" s="2" t="n">
         <v>77.77</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="S16" s="2" t="n">
         <v>48.83</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="T16" s="2" t="n">
         <v>52.86</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="0" t="s">
+      <c r="A17" s="0" t="n">
+        <v>1199.2</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3503.36</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>300.31</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>315.28</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2871.85</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>93.89</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>97.9</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>93.89</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="2" t="n">
         <v>778.08</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="2" t="n">
         <v>379.42</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17" s="2" t="n">
         <v>21.17</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17" s="2" t="n">
         <v>70.17</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17" s="2" t="n">
         <v>286.69</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="Q17" s="2" t="n">
         <v>95.99</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17" s="2" t="n">
         <v>97.26</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="S17" s="2" t="n">
         <v>96.46</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="T17" s="2" t="n">
         <v>95.99</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K21" s="0" t="s">
+      <c r="K21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K22" s="0" t="s">
+      <c r="K22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K23" s="0" t="s">
+      <c r="K23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
